--- a/sazhamtp.xlsx
+++ b/sazhamtp.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4FB2841-DCAB-124F-A289-6C8779F46240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Test-Cases" sheetId="1" r:id="rId4"/>
+    <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,89 +76,90 @@
     <t>User should be navigated to the New  Case Page</t>
   </si>
   <si>
+    <t xml:space="preserve">Valid value for required field Case Origin </t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Input valid value in the  Case Origin field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Case Origin field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field Case Number </t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Input valid value in the  Case Number field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Case Number field.</t>
+  </si>
+  <si>
+    <t>Valid value for required field Priority  @ Valid value for required field Priority, value should be equals High for Escalation Process.</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Input valid value in the  Priority field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Priority field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid value for required field Status </t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Input valid value in the  Status field.</t>
+  </si>
+  <si>
+    <t>User should be able to input value for the Status field.</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Click on Save button to save Case with fields</t>
+  </si>
+  <si>
+    <t>User should be able to validate that a New Case is created</t>
+  </si>
+  <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid value for required field Case Origin </t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Input valid value in the  Case Origin field.</t>
-  </si>
-  <si>
-    <t>User should be able to input value for the Case Origin field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid value for required field Case Number </t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Input valid value in the  Case Number field.</t>
-  </si>
-  <si>
-    <t>User should be able to input value for the Case Number field.</t>
-  </si>
-  <si>
-    <t>Valid value for required field Priority  @ Valid value for required field Priority, value should be equals High for Escalation Process.</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Input valid value in the  Priority field.</t>
-  </si>
-  <si>
-    <t>User should be able to input value for the Priority field.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid value for required field Status </t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Input valid value in the  Status field.</t>
-  </si>
-  <si>
-    <t>User should be able to input value for the Status field.</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Click on Save button to save Case with fields</t>
-  </si>
-  <si>
-    <t>User should be able to validate that a New Case is created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -155,116 +168,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4F81BD"/>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Test-Cases-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J7" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn name="TestScenarioID" id="1"/>
-    <tableColumn name="TestCaseID" id="2"/>
-    <tableColumn name="Description" id="3"/>
-    <tableColumn name="Precondition" id="4"/>
-    <tableColumn name="TestData" id="5"/>
-    <tableColumn name="Steps" id="6"/>
-    <tableColumn name="UserAction" id="7"/>
-    <tableColumn name="ExpectedResult" id="8"/>
-    <tableColumn name="Approved/Rejected" id="9"/>
-    <tableColumn name="ReasonToReject" id="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Precondition"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TestData"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Steps"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="UserAction"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ExpectedResult"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Approved/Rejected"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ReasonToReject"/>
   </tableColumns>
-  <tableStyleInfo name="Test-Cases-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -420,7 +383,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -429,13 +392,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -445,7 +408,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -454,7 +417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -463,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,12 +436,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -509,7 +472,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -528,7 +491,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -540,29 +503,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="26.29"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="70.0"/>
-    <col customWidth="1" min="5" max="5" width="116.14"/>
-    <col customWidth="1" min="6" max="6" width="7.86"/>
-    <col customWidth="1" min="7" max="7" width="43.43"/>
-    <col customWidth="1" min="8" max="8" width="56.86"/>
-    <col customWidth="1" min="9" max="9" width="20.43"/>
-    <col customWidth="1" min="10" max="10" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="8.71"/>
+    <col min="1" max="1" width="16.0078125" customWidth="1"/>
+    <col min="2" max="2" width="26.23046875" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="69.94921875" customWidth="1"/>
+    <col min="5" max="5" width="116.09375" customWidth="1"/>
+    <col min="6" max="6" width="7.80078125" customWidth="1"/>
+    <col min="7" max="7" width="43.44921875" customWidth="1"/>
+    <col min="8" max="8" width="56.90234375" customWidth="1"/>
+    <col min="9" max="9" width="20.4453125" customWidth="1"/>
+    <col min="10" max="10" width="16.94921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,221 +555,104 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.5" footer="0.0" header="0.0" left="0.75" right="0.75" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sazhamtp.xlsx
+++ b/sazhamtp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -143,6 +143,15 @@
   </x:si>
   <x:si>
     <x:t>Input valid value in the Case Origin field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Case</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -226,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0">
-  <x:autoFilter ref="A1:J10"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
+  <x:autoFilter ref="A1:J12"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -532,7 +541,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J10"/>
+  <x:dimension ref="A1:J12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -764,6 +773,50 @@
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
     </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/sazhamtp.xlsx
+++ b/sazhamtp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -152,6 +152,51 @@
   </x:si>
   <x:si>
     <x:t>Edit Case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aaaaaaaaaaaaaaaaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsfdfdsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdsf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asddddddddddddd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dffffffffffffffff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfffffffffffffffff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdffffffffffffffffffffff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdffffffffffff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsfffffffffffffffffffff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sdfffffffffffffff</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -235,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
-  <x:autoFilter ref="A1:J12"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J15" totalsRowShown="0">
+  <x:autoFilter ref="A1:J15"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -541,7 +586,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J12"/>
+  <x:dimension ref="A1:J15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -549,10 +594,10 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="116.130625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.700625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="43.410625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="56.840625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
@@ -817,6 +862,80 @@
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
     </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
